--- a/tests/Типы источников/к-300/к-300.xlsx
+++ b/tests/Типы источников/к-300/к-300.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6EB6CC-0ED2-4771-86C8-972515E68684}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="к-300" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Мощность, МВт</t>
+  </si>
+  <si>
+    <t>Номинмальная мощность, МВт</t>
+  </si>
+  <si>
+    <t>технический минимум</t>
+  </si>
+  <si>
+    <t>Расход, МВт</t>
+  </si>
+  <si>
+    <t>КПД</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +93,1175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>К-300</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> (зависимость КПД от мощности)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-BY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-BY"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'к-300'!$B$19:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'к-300'!$D$19:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.41952174521046004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43471960585422403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44547839429787656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45349515192087592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45969966288691383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46464403104510488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46867676925480389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02CB-42E6-8482-689232E2432F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="867074479"/>
+        <c:axId val="1017841471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="867074479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>МВт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017841471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1017841471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КПД</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3986013986013986E-2"/>
+              <c:y val="0.38333191842800202"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867074479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83270</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BDC364-F0D0-4CA0-A350-09F254430F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9525"/>
+          <a:ext cx="8160470" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FB1934-6DC8-4E7C-A521-591C18010BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410701" y="0"/>
+          <a:ext cx="5121384" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53854E2-7513-4BAC-A570-52CF59B22BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1526,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A16:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>1.9670000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.4</v>
+      </c>
+      <c r="B19">
+        <f>$B$16*A19</f>
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <f>$D$16+$D$17*B19</f>
+        <v>286.04000000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19/C19</f>
+        <v>0.41952174521046004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B25" si="0">$B$16*A20</f>
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C25" si="1">$D$16+$D$17*B20</f>
+        <v>345.05</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D25" si="2">B20/C20</f>
+        <v>0.43471960585422403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.6</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>404.06</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44547839429787656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>463.07</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45349515192087592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>522.08000000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45969966288691383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.9</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>581.09</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46464403104510488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>640.1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46867676925480389</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>